--- a/wowow.xlsx
+++ b/wowow.xlsx
@@ -911,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>703.8571300112885</v>
+        <v>469.8772628780852</v>
       </c>
       <c r="C3">
-        <v>644.6638036087023</v>
+        <v>530.8650434151923</v>
       </c>
       <c r="D3">
-        <v>546.3973479684997</v>
+        <v>425.4652343624996</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -925,13 +925,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>441.110856347644</v>
+        <v>430.2776150599204</v>
       </c>
       <c r="C4">
-        <v>616.4256517407188</v>
+        <v>633.4448118588967</v>
       </c>
       <c r="D4">
-        <v>442.2503724792808</v>
+        <v>439.4957313997322</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -939,13 +939,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>9471.18516599885</v>
+        <v>7341.343973260171</v>
       </c>
       <c r="C5">
-        <v>6729.570789452911</v>
+        <v>6123.309212322727</v>
       </c>
       <c r="D5">
-        <v>7405.213471781271</v>
+        <v>5893.022754629999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -953,13 +953,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>37.38554961812279</v>
+        <v>22.09057284033562</v>
       </c>
       <c r="C6">
-        <v>35.74854849698714</v>
+        <v>26.35138936168159</v>
       </c>
       <c r="D6">
-        <v>28.22591468451377</v>
+        <v>20.04822796173373</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -967,13 +967,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>352.006320415374</v>
+        <v>306.2315536375667</v>
       </c>
       <c r="C7">
-        <v>625.186352930522</v>
+        <v>540.9490542508893</v>
       </c>
       <c r="D7">
-        <v>411.0980232697276</v>
+        <v>355.9134475386729</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -981,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>75.95696461965922</v>
+        <v>61.10327210237789</v>
       </c>
       <c r="C8">
-        <v>56.28886056329968</v>
+        <v>42.66685986763196</v>
       </c>
       <c r="D8">
-        <v>56.97133709268567</v>
+        <v>46.93724490130199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -995,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6581.692876249879</v>
+        <v>5970.874429991637</v>
       </c>
       <c r="C9">
-        <v>6324.782095724526</v>
+        <v>5347.307970413055</v>
       </c>
       <c r="D9">
-        <v>5521.423790944837</v>
+        <v>4785.277129409566</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1009,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>4471.566613192565</v>
+        <v>3472.889463893527</v>
       </c>
       <c r="C10">
-        <v>5295.603937426396</v>
+        <v>4385.796111525213</v>
       </c>
       <c r="D10">
-        <v>3767.786709370509</v>
+        <v>3071.664882353317</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1023,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2155.585948237871</v>
+        <v>3105.489548307546</v>
       </c>
       <c r="C11">
-        <v>3083.220991061549</v>
+        <v>2901.092546485253</v>
       </c>
       <c r="D11">
-        <v>2266.313496304844</v>
+        <v>2192.489011247688</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1037,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>3475.283051475427</v>
+        <v>3382.992687729105</v>
       </c>
       <c r="C12">
-        <v>3518.246973116404</v>
+        <v>3230.221425535347</v>
       </c>
       <c r="D12">
-        <v>3217.598826038322</v>
+        <v>2811.45687091635</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1051,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>96.48130441405172</v>
+        <v>64.86927140814902</v>
       </c>
       <c r="C13">
-        <v>291.5885897270726</v>
+        <v>197.0536032530007</v>
       </c>
       <c r="D13">
-        <v>241.6281041336361</v>
+        <v>170.8659880782982</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1079,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7349.491932239501</v>
+        <v>5731.514842520521</v>
       </c>
       <c r="C15">
-        <v>15774.24401898298</v>
+        <v>13262.25660866347</v>
       </c>
       <c r="D15">
-        <v>10465.41017980626</v>
+        <v>8721.853244198603</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1093,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>13.2373762673187</v>
+        <v>9.56517750929623</v>
       </c>
       <c r="C16">
-        <v>6.844758018879064</v>
+        <v>4.586927567447715</v>
       </c>
       <c r="D16">
-        <v>7.281669192321584</v>
+        <v>5.461001149103925</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1135,13 +1135,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>373.6846502529135</v>
+        <v>344.4775680805473</v>
       </c>
       <c r="C19">
-        <v>431.1164194325353</v>
+        <v>171.1831872177398</v>
       </c>
       <c r="D19">
-        <v>419.9325841547315</v>
+        <v>236.6279772805786</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1149,13 +1149,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>435.8980431982395</v>
+        <v>337.4602797105478</v>
       </c>
       <c r="C20">
-        <v>419.609116516858</v>
+        <v>376.4043189728499</v>
       </c>
       <c r="D20">
-        <v>440.4865377702426</v>
+        <v>351.5515968612762</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1163,13 +1163,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>253.2817204907886</v>
+        <v>196.3537343692983</v>
       </c>
       <c r="C21">
-        <v>113.4527123424137</v>
+        <v>196.8883262926067</v>
       </c>
       <c r="D21">
-        <v>126.3534710351703</v>
+        <v>128.2989859858629</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>779.2652037163948</v>
+        <v>1526.127804475005</v>
       </c>
       <c r="C22">
-        <v>788.1883381982764</v>
+        <v>2659.880263322078</v>
       </c>
       <c r="D22">
-        <v>514.1594578433096</v>
+        <v>1773.263307952335</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1191,13 +1191,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1685.389314201065</v>
+        <v>5788.293919256114</v>
       </c>
       <c r="C23">
-        <v>2847.708635214026</v>
+        <v>5870.601538452807</v>
       </c>
       <c r="D23">
-        <v>2372.204143873483</v>
+        <v>4735.136018775424</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1205,13 +1205,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>4.477100630522638</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>6.906102842677997</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>8.453681062232942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1219,13 +1219,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>4.477100630522638</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>6.906102842677997</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>8.453681062232942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>4.477100630522638</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>6.908397769114147</v>
+        <v>0.001861651090448397</v>
       </c>
       <c r="D27">
-        <v>8.455176433707003</v>
+        <v>0.001213049748112932</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1317,13 +1317,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.142532130585183</v>
+        <v>10.45249388437473</v>
       </c>
       <c r="C32">
-        <v>4.292342430234155</v>
+        <v>6.412330623173281</v>
       </c>
       <c r="D32">
-        <v>3.873730733726326</v>
+        <v>5.901643040760961</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1345,13 +1345,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>95.21357024536769</v>
+        <v>432.9335545698819</v>
       </c>
       <c r="C34">
-        <v>135.9869356316303</v>
+        <v>1022.290516810255</v>
       </c>
       <c r="D34">
-        <v>90.269978955613</v>
+        <v>674.3945544923193</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1359,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>84.05677588194639</v>
+        <v>559.5549493356501</v>
       </c>
       <c r="C35">
-        <v>106.7052466632802</v>
+        <v>660.7328598049467</v>
       </c>
       <c r="D35">
-        <v>72.98605109324545</v>
+        <v>483.0593473233077</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1373,13 +1373,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7992.912694470653</v>
+        <v>6418.991136834455</v>
       </c>
       <c r="C36">
-        <v>4943.883548503624</v>
+        <v>3671.591412199673</v>
       </c>
       <c r="D36">
-        <v>5370.39154735928</v>
+        <v>4144.100555484029</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1387,13 +1387,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>2227.636523069138</v>
+        <v>2054.101768615139</v>
       </c>
       <c r="C37">
-        <v>1457.707224335876</v>
+        <v>1279.61972650743</v>
       </c>
       <c r="D37">
-        <v>1398.887390798506</v>
+        <v>1260.31054411033</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1401,13 +1401,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>3453.069225293509</v>
+        <v>2380.303822721492</v>
       </c>
       <c r="C38">
-        <v>3149.62408125978</v>
+        <v>2804.673821838373</v>
       </c>
       <c r="D38">
-        <v>4275.511745940787</v>
+        <v>3246.647704876969</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1415,13 +1415,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>5309.671613304256</v>
+        <v>3446.116371938208</v>
       </c>
       <c r="C39">
-        <v>2396.364726173994</v>
+        <v>1574.442658694024</v>
       </c>
       <c r="D39">
-        <v>2918.495617114055</v>
+        <v>1942.848907424375</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1429,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7186.2077837616</v>
+        <v>5341.565950194802</v>
       </c>
       <c r="C40">
-        <v>6460.017362588997</v>
+        <v>4530.545002202295</v>
       </c>
       <c r="D40">
-        <v>5255.032229599525</v>
+        <v>3851.779355893883</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1443,13 +1443,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>20794.16752597604</v>
+        <v>17664.50078618487</v>
       </c>
       <c r="C41">
-        <v>13299.28422456488</v>
+        <v>9158.276984983753</v>
       </c>
       <c r="D41">
-        <v>12286.67557014727</v>
+        <v>9769.005097375288</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1457,13 +1457,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>216.8597366694632</v>
+        <v>149.9449727150165</v>
       </c>
       <c r="C42">
-        <v>361.8094020097406</v>
+        <v>230.2682867580947</v>
       </c>
       <c r="D42">
-        <v>364.2135160267749</v>
+        <v>237.4896860762173</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1471,13 +1471,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1885.623633480191</v>
+        <v>582.0835847463517</v>
       </c>
       <c r="C43">
-        <v>1234.571102560183</v>
+        <v>560.8808025738547</v>
       </c>
       <c r="D43">
-        <v>1231.382991074528</v>
+        <v>597.5074414281653</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1485,13 +1485,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>70861.44135779154</v>
+        <v>56899.054965669</v>
       </c>
       <c r="C44">
-        <v>48590.03995427423</v>
+        <v>35396.85641373933</v>
       </c>
       <c r="D44">
-        <v>48039.99654794896</v>
+        <v>37487.65080974031</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1499,13 +1499,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>5005.609060849609</v>
+        <v>4026.271189659207</v>
       </c>
       <c r="C45">
-        <v>3480.01343400677</v>
+        <v>2596.115320352719</v>
       </c>
       <c r="D45">
-        <v>3482.257736006336</v>
+        <v>2738.886217770306</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1513,13 +1513,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>3141.693541499822</v>
+        <v>1293.946290804839</v>
       </c>
       <c r="C46">
-        <v>1745.714057976877</v>
+        <v>1229.697434725679</v>
       </c>
       <c r="D46">
-        <v>1903.598894054485</v>
+        <v>958.4040160247591</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1527,13 +1527,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>10452.32190388739</v>
+        <v>8793.588146488901</v>
       </c>
       <c r="C47">
-        <v>5042.987643020643</v>
+        <v>4220.939307344027</v>
       </c>
       <c r="D47">
-        <v>7069.555678063418</v>
+        <v>5896.300648383793</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1541,13 +1541,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>8766.231413320134</v>
+        <v>6926.602237703623</v>
       </c>
       <c r="C48">
-        <v>5902.736101237642</v>
+        <v>4386.611376825702</v>
       </c>
       <c r="D48">
-        <v>5975.859376483018</v>
+        <v>4506.016236810013</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1555,13 +1555,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>3268.645089070224</v>
+        <v>2139.194229033636</v>
       </c>
       <c r="C49">
-        <v>1398.579021687933</v>
+        <v>987.7975951592972</v>
       </c>
       <c r="D49">
-        <v>1914.261043157106</v>
+        <v>1335.425316169901</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1569,13 +1569,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>1283.296987289913</v>
+        <v>446.5716531436047</v>
       </c>
       <c r="C50">
-        <v>672.7526976319568</v>
+        <v>363.8941520840842</v>
       </c>
       <c r="D50">
-        <v>790.0929743482891</v>
+        <v>381.2488778770983</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1583,13 +1583,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>1052.420953857946</v>
+        <v>739.5086744513026</v>
       </c>
       <c r="C51">
-        <v>1153.406658130088</v>
+        <v>865.7553917982887</v>
       </c>
       <c r="D51">
-        <v>858.6304282242321</v>
+        <v>634.1838376944883</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1597,13 +1597,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>4608.243706102445</v>
+        <v>3690.477129395373</v>
       </c>
       <c r="C52">
-        <v>6782.438404518108</v>
+        <v>5377.478912369834</v>
       </c>
       <c r="D52">
-        <v>5058.898562665619</v>
+        <v>3952.267563483358</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1611,13 +1611,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>308.75300085622</v>
+        <v>241.3356348128294</v>
       </c>
       <c r="C53">
-        <v>347.24677073628</v>
+        <v>264.4083274956059</v>
       </c>
       <c r="D53">
-        <v>241.9279290921923</v>
+        <v>187.3780379899981</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1625,13 +1625,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>2858.633155853304</v>
+        <v>3132.325030672133</v>
       </c>
       <c r="C54">
-        <v>4960.94517031557</v>
+        <v>4426.598804442115</v>
       </c>
       <c r="D54">
-        <v>3459.184410270657</v>
+        <v>3138.435398645175</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1639,13 +1639,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>8648.909595680472</v>
+        <v>5402.176159478921</v>
       </c>
       <c r="C55">
-        <v>7396.50613940531</v>
+        <v>5299.474387396715</v>
       </c>
       <c r="D55">
-        <v>5553.028836622903</v>
+        <v>3708.91519852061</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1653,13 +1653,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>22413.42085530046</v>
+        <v>16774.13137353057</v>
       </c>
       <c r="C56">
-        <v>23049.36589274076</v>
+        <v>19292.7842631247</v>
       </c>
       <c r="D56">
-        <v>21312.61156903169</v>
+        <v>17175.96012677532</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1667,13 +1667,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>494.3837096967393</v>
+        <v>281.0927975923865</v>
       </c>
       <c r="C57">
-        <v>462.5723610528104</v>
+        <v>291.7508422788402</v>
       </c>
       <c r="D57">
-        <v>319.9117334644388</v>
+        <v>196.6931918409477</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1681,13 +1681,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>84292.10081673044</v>
+        <v>63211.46985687446</v>
       </c>
       <c r="C58">
-        <v>58360.67311652936</v>
+        <v>44006.49357880573</v>
       </c>
       <c r="D58">
-        <v>50642.21089152417</v>
+        <v>38107.2694479745</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1695,13 +1695,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>696.1231379059919</v>
+        <v>577.1271301035385</v>
       </c>
       <c r="C59">
-        <v>728.3033620927885</v>
+        <v>543.7911689166236</v>
       </c>
       <c r="D59">
-        <v>529.1493655419498</v>
+        <v>429.4642213830697</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1709,13 +1709,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>21438.7194586633</v>
+        <v>10523.10173511294</v>
       </c>
       <c r="C60">
-        <v>17222.66843596513</v>
+        <v>10235.43495859441</v>
       </c>
       <c r="D60">
-        <v>15842.07070598018</v>
+        <v>9989.08055765033</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1723,13 +1723,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>24558.28477064299</v>
+        <v>10194.00303845138</v>
       </c>
       <c r="C61">
-        <v>18647.2914976612</v>
+        <v>10516.05799460783</v>
       </c>
       <c r="D61">
-        <v>17441.25191755351</v>
+        <v>10291.57133874383</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1737,13 +1737,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>179.3708484549028</v>
+        <v>131.1591195234624</v>
       </c>
       <c r="C62">
-        <v>311.1910066917275</v>
+        <v>239.4695611352535</v>
       </c>
       <c r="D62">
-        <v>234.4304388518875</v>
+        <v>177.0720769981857</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1751,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>222.2672009869386</v>
+        <v>613.7191629310197</v>
       </c>
       <c r="C63">
-        <v>482.9038291948159</v>
+        <v>603.2132977683536</v>
       </c>
       <c r="D63">
-        <v>340.1035836343327</v>
+        <v>449.0447667503347</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1765,13 +1765,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>17010.75624896032</v>
+        <v>12669.3568133594</v>
       </c>
       <c r="C64">
-        <v>13166.77083069217</v>
+        <v>11485.65629074155</v>
       </c>
       <c r="D64">
-        <v>11349.18863076393</v>
+        <v>8856.833377582589</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1779,13 +1779,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>21054.11274545559</v>
+        <v>13979.02158195926</v>
       </c>
       <c r="C65">
-        <v>20161.46416735134</v>
+        <v>13611.7184943892</v>
       </c>
       <c r="D65">
-        <v>15398.24659404708</v>
+        <v>10448.66494981285</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1793,13 +1793,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>436.828543411246</v>
+        <v>275.4455849172774</v>
       </c>
       <c r="C66">
-        <v>539.3941099225942</v>
+        <v>388.5660792334176</v>
       </c>
       <c r="D66">
-        <v>363.5270149136191</v>
+        <v>260.2781225553703</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1807,13 +1807,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>325.4295336339526</v>
+        <v>272.8888800483415</v>
       </c>
       <c r="C67">
-        <v>590.3805912340542</v>
+        <v>504.9542145098934</v>
       </c>
       <c r="D67">
-        <v>398.2518299845544</v>
+        <v>338.4649335891053</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1821,13 +1821,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>275.6711439344476</v>
+        <v>271.0938362670947</v>
       </c>
       <c r="C68">
-        <v>226.5667721742227</v>
+        <v>286.3832665117565</v>
       </c>
       <c r="D68">
-        <v>195.1875441909622</v>
+        <v>217.6288749018039</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1835,13 +1835,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>1137.38012596617</v>
+        <v>870.439129032854</v>
       </c>
       <c r="C69">
-        <v>1901.807042762006</v>
+        <v>1561.566955398396</v>
       </c>
       <c r="D69">
-        <v>1280.686893523267</v>
+        <v>1057.893346492701</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1849,13 +1849,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6018.561385156896</v>
+        <v>4699.435653045763</v>
       </c>
       <c r="C70">
-        <v>10436.28905937694</v>
+        <v>8638.426078521801</v>
       </c>
       <c r="D70">
-        <v>6884.573143980776</v>
+        <v>5703.429063009641</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1863,13 +1863,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>1883.969066064307</v>
+        <v>1505.671791761921</v>
       </c>
       <c r="C71">
-        <v>3130.338125260393</v>
+        <v>2616.840813866084</v>
       </c>
       <c r="D71">
-        <v>2064.018865081398</v>
+        <v>1727.06524984423</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1877,13 +1877,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>1146.215251044036</v>
+        <v>806.4942339742429</v>
       </c>
       <c r="C72">
-        <v>1397.271976342964</v>
+        <v>1056.533286904247</v>
       </c>
       <c r="D72">
-        <v>1113.633014184748</v>
+        <v>814.0966860817039</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1891,13 +1891,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>1164.87317933505</v>
+        <v>899.479088951182</v>
       </c>
       <c r="C73">
-        <v>1202.84810131981</v>
+        <v>946.4003549288213</v>
       </c>
       <c r="D73">
-        <v>805.6203854954977</v>
+        <v>635.8524420796471</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1905,13 +1905,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>172.3488660072823</v>
+        <v>142.4022395615319</v>
       </c>
       <c r="C74">
-        <v>191.8991754179532</v>
+        <v>163.0830729813976</v>
       </c>
       <c r="D74">
-        <v>127.7799696643849</v>
+        <v>108.8747419140978</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1919,13 +1919,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>1056.604920409942</v>
+        <v>514.6979530298819</v>
       </c>
       <c r="C75">
-        <v>1193.416797816906</v>
+        <v>664.0806469043456</v>
       </c>
       <c r="D75">
-        <v>809.1913705440185</v>
+        <v>444.9047816492478</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1947,13 +1947,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>2412.521749649585</v>
+        <v>1306.218559264442</v>
       </c>
       <c r="C77">
-        <v>2445.896642233723</v>
+        <v>1525.237801101385</v>
       </c>
       <c r="D77">
-        <v>1634.119100438457</v>
+        <v>1025.668841332587</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1961,13 +1961,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>1370.425383641389</v>
+        <v>913.444261405552</v>
       </c>
       <c r="C78">
-        <v>1592.933359116809</v>
+        <v>1035.917316750519</v>
       </c>
       <c r="D78">
-        <v>1054.273571998642</v>
+        <v>685.7762657903329</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1975,13 +1975,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>1382.628267575822</v>
+        <v>1147.747465146626</v>
       </c>
       <c r="C79">
-        <v>1139.192045962147</v>
+        <v>768.687602786221</v>
       </c>
       <c r="D79">
-        <v>826.0495088072295</v>
+        <v>635.7957974532624</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1989,13 +1989,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>98.53380365961338</v>
+        <v>101.1241766308879</v>
       </c>
       <c r="C80">
-        <v>105.2676239053621</v>
+        <v>74.20980576863384</v>
       </c>
       <c r="D80">
-        <v>74.00967024237775</v>
+        <v>62.88259268652815</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2003,13 +2003,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>4126.339097707573</v>
+        <v>2141.944562526536</v>
       </c>
       <c r="C81">
-        <v>3640.876721679017</v>
+        <v>2517.266523158904</v>
       </c>
       <c r="D81">
-        <v>2487.455303531397</v>
+        <v>1712.887513598264</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2017,13 +2017,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>4.90352702290665</v>
+        <v>3.597049576741345</v>
       </c>
       <c r="C82">
-        <v>4.320879471926524</v>
+        <v>3.338019242598117</v>
       </c>
       <c r="D82">
-        <v>3.064027087304523</v>
+        <v>2.308155776141342</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2031,13 +2031,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>1683.348212235171</v>
+        <v>1755.521559920373</v>
       </c>
       <c r="C83">
-        <v>1681.488062314521</v>
+        <v>1569.071769059485</v>
       </c>
       <c r="D83">
-        <v>1149.528912763227</v>
+        <v>1085.418039942413</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2059,13 +2059,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>2611.597014647558</v>
+        <v>1952.930691413143</v>
       </c>
       <c r="C85">
-        <v>3258.712770049274</v>
+        <v>2631.929081586507</v>
       </c>
       <c r="D85">
-        <v>2170.035851523724</v>
+        <v>1744.41778717636</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2073,13 +2073,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>36447.27858430022</v>
+        <v>21969.51919066429</v>
       </c>
       <c r="C86">
-        <v>42595.89817613238</v>
+        <v>29694.69071667125</v>
       </c>
       <c r="D86">
-        <v>32048.37718587547</v>
+        <v>22253.25168498898</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2087,13 +2087,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>45985.19714754514</v>
+        <v>30495.95125628247</v>
       </c>
       <c r="C87">
-        <v>33760.52792419236</v>
+        <v>23006.61258800624</v>
       </c>
       <c r="D87">
-        <v>33197.48048452517</v>
+        <v>23852.61831455016</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2101,13 +2101,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>1920.921659735882</v>
+        <v>1515.336324582096</v>
       </c>
       <c r="C88">
-        <v>1953.905264853524</v>
+        <v>1543.714113796821</v>
       </c>
       <c r="D88">
-        <v>1620.412737176408</v>
+        <v>1305.505045231537</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2115,13 +2115,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>9137.933187045826</v>
+        <v>5916.374477319665</v>
       </c>
       <c r="C89">
-        <v>10607.6162294967</v>
+        <v>7533.774916759434</v>
       </c>
       <c r="D89">
-        <v>8419.361758205943</v>
+        <v>5939.801056721195</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2129,13 +2129,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>1485.468359214828</v>
+        <v>1045.949516869603</v>
       </c>
       <c r="C90">
-        <v>5087.071807204076</v>
+        <v>3501.694821248101</v>
       </c>
       <c r="D90">
-        <v>4315.779527040628</v>
+        <v>3067.737975067952</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2143,13 +2143,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>12082.55040052949</v>
+        <v>8452.518443148219</v>
       </c>
       <c r="C91">
-        <v>15766.91364475011</v>
+        <v>9997.58891630327</v>
       </c>
       <c r="D91">
-        <v>15246.40966029423</v>
+        <v>9560.728431835061</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2157,13 +2157,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>19547.25297980267</v>
+        <v>13169.98458818583</v>
       </c>
       <c r="C92">
-        <v>18380.62094421944</v>
+        <v>11914.33972283704</v>
       </c>
       <c r="D92">
-        <v>19680.56490960162</v>
+        <v>13245.36808684267</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2171,13 +2171,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>29983.15927668583</v>
+        <v>17654.39858211607</v>
       </c>
       <c r="C93">
-        <v>20040.39590390382</v>
+        <v>11125.04256555458</v>
       </c>
       <c r="D93">
-        <v>20240.33923000325</v>
+        <v>12036.71312164075</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2185,13 +2185,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>4513.422403430206</v>
+        <v>7251.314704137569</v>
       </c>
       <c r="C94">
-        <v>5682.868603909643</v>
+        <v>6743.565003919706</v>
       </c>
       <c r="D94">
-        <v>6025.367951331295</v>
+        <v>8122.057827705543</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2199,13 +2199,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>1055.587804214034</v>
+        <v>912.0731007849533</v>
       </c>
       <c r="C95">
-        <v>1368.055060514498</v>
+        <v>1071.07856244127</v>
       </c>
       <c r="D95">
-        <v>1024.626757430157</v>
+        <v>796.2141995760327</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2213,13 +2213,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>249.8466810156848</v>
+        <v>220.5389970438813</v>
       </c>
       <c r="C96">
-        <v>306.0850974027531</v>
+        <v>259.5022616438346</v>
       </c>
       <c r="D96">
-        <v>204.3290242649558</v>
+        <v>172.7394693373548</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2227,13 +2227,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>2095.32533269157</v>
+        <v>5519.505123486822</v>
       </c>
       <c r="C97">
-        <v>2007.765576597142</v>
+        <v>4525.065150585757</v>
       </c>
       <c r="D97">
-        <v>1341.976363952508</v>
+        <v>3683.810085478618</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2241,13 +2241,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>869.8700466737508</v>
+        <v>8767.197644838818</v>
       </c>
       <c r="C98">
-        <v>1951.772213993833</v>
+        <v>12731.06054377431</v>
       </c>
       <c r="D98">
-        <v>1447.843686948966</v>
+        <v>10208.73742190306</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2255,13 +2255,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>50.14431327100262</v>
+        <v>284.5914446257783</v>
       </c>
       <c r="C99">
-        <v>337.4429101531035</v>
+        <v>755.4255587983783</v>
       </c>
       <c r="D99">
-        <v>223.8733515163028</v>
+        <v>623.745727161023</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2269,13 +2269,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>9.720033187927902</v>
+        <v>20.95472868162251</v>
       </c>
       <c r="C100">
-        <v>7.517504184017792</v>
+        <v>14.56420949141136</v>
       </c>
       <c r="D100">
-        <v>6.669992636567057</v>
+        <v>12.41821007378577</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2283,13 +2283,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>23.64018952138782</v>
+        <v>220.7807492477203</v>
       </c>
       <c r="C101">
-        <v>267.6201955614656</v>
+        <v>794.8279276696115</v>
       </c>
       <c r="D101">
-        <v>175.8978403096098</v>
+        <v>623.2079678988891</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2297,13 +2297,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>170.4761156583052</v>
+        <v>282.2543249114991</v>
       </c>
       <c r="C102">
-        <v>178.6446470130816</v>
+        <v>251.7223783396074</v>
       </c>
       <c r="D102">
-        <v>119.5058169246426</v>
+        <v>197.65279892077</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2311,13 +2311,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>73.26953127878654</v>
+        <v>862.2072534198956</v>
       </c>
       <c r="C103">
-        <v>160.2026855490524</v>
+        <v>1149.675914219219</v>
       </c>
       <c r="D103">
-        <v>106.9328106882765</v>
+        <v>936.4495734933948</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2325,13 +2325,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.5070276290466378</v>
+        <v>3.863664160168322</v>
       </c>
       <c r="C104">
-        <v>0.9648355288424392</v>
+        <v>8.03708606294639</v>
       </c>
       <c r="D104">
-        <v>0.6416751811421454</v>
+        <v>6.033512456115293</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2342,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>5.981931970429264E-06</v>
+        <v>4.855897548320003E-06</v>
       </c>
       <c r="D105">
-        <v>3.897820116340998E-06</v>
+        <v>3.164097358561971E-06</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2356,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>4.833113685915893E-06</v>
+        <v>3.923971221258347E-06</v>
       </c>
       <c r="D106">
-        <v>3.149251419550011E-06</v>
+        <v>2.556855216303366E-06</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2370,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>0.002284160510941435</v>
+        <v>0.001852922734276607</v>
       </c>
       <c r="D107">
-        <v>0.001488356409352539</v>
+        <v>0.001207362361088611</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2381,13 +2381,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>43.23046060828967</v>
+        <v>366.0596840823516</v>
       </c>
       <c r="C108">
-        <v>301.7292551078625</v>
+        <v>652.2848339935947</v>
       </c>
       <c r="D108">
-        <v>203.547318605076</v>
+        <v>541.2751484177002</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2395,13 +2395,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>223.2302355100816</v>
+        <v>1881.267040706883</v>
       </c>
       <c r="C109">
-        <v>491.260163908125</v>
+        <v>2165.977611975468</v>
       </c>
       <c r="D109">
-        <v>324.3119415802054</v>
+        <v>1747.75105828791</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2409,13 +2409,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>1013.14539695507</v>
+        <v>7962.317668783402</v>
       </c>
       <c r="C110">
-        <v>1710.022191084118</v>
+        <v>8966.736658763961</v>
       </c>
       <c r="D110">
-        <v>1131.684952707551</v>
+        <v>7350.559596385469</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2423,13 +2423,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>1778.785433856619</v>
+        <v>9406.432649709914</v>
       </c>
       <c r="C111">
-        <v>1441.940016175876</v>
+        <v>9939.870718504313</v>
       </c>
       <c r="D111">
-        <v>1838.063691199579</v>
+        <v>9502.475355329243</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2437,13 +2437,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>24.02958909199884</v>
+        <v>140.3147455918904</v>
       </c>
       <c r="C112">
-        <v>21.44361946502343</v>
+        <v>153.9352487979352</v>
       </c>
       <c r="D112">
-        <v>16.27420732373285</v>
+        <v>109.5860814998981</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2451,13 +2451,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>758.8846731645874</v>
+        <v>2437.967250676983</v>
       </c>
       <c r="C113">
-        <v>520.8952946804695</v>
+        <v>2159.924312222817</v>
       </c>
       <c r="D113">
-        <v>528.9335524497802</v>
+        <v>2206.496701296597</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2465,13 +2465,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>182442.1587374731</v>
+        <v>155116.83970713</v>
       </c>
       <c r="C114">
-        <v>140428.6298570641</v>
+        <v>101608.3132687082</v>
       </c>
       <c r="D114">
-        <v>135874.6467006014</v>
+        <v>110659.5876251328</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2479,13 +2479,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>13.80977821962471</v>
+        <v>118.0964382860581</v>
       </c>
       <c r="C115">
-        <v>22.15191167068658</v>
+        <v>183.077315494817</v>
       </c>
       <c r="D115">
-        <v>21.1750719719851</v>
+        <v>198.4845264897608</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2493,13 +2493,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>20093.4575701059</v>
+        <v>14586.93995807991</v>
       </c>
       <c r="C116">
-        <v>30293.09726359768</v>
+        <v>23077.46234994264</v>
       </c>
       <c r="D116">
-        <v>27432.21020783471</v>
+        <v>20811.46915905076</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2507,13 +2507,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>928.709423226514</v>
+        <v>687.5049186712348</v>
       </c>
       <c r="C117">
-        <v>1641.185776721162</v>
+        <v>1320.744374424488</v>
       </c>
       <c r="D117">
-        <v>1177.470760976534</v>
+        <v>933.1208222241827</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2521,13 +2521,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>61698.32201139385</v>
+        <v>42927.14793345485</v>
       </c>
       <c r="C118">
-        <v>123334.427776018</v>
+        <v>86642.35675797566</v>
       </c>
       <c r="D118">
-        <v>95879.66360972724</v>
+        <v>67691.49773464729</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2535,13 +2535,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>10375.59152767294</v>
+        <v>9920.545402187803</v>
       </c>
       <c r="C119">
-        <v>23008.91088125702</v>
+        <v>16282.7227121008</v>
       </c>
       <c r="D119">
-        <v>20991.84261673078</v>
+        <v>15018.91743573106</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2549,13 +2549,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>21240.24074584073</v>
+        <v>27951.53379731744</v>
       </c>
       <c r="C120">
-        <v>43610.35418616915</v>
+        <v>33803.64960376176</v>
       </c>
       <c r="D120">
-        <v>38099.56207141478</v>
+        <v>36069.58425442585</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2563,13 +2563,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>6889.074019516438</v>
+        <v>4806.036515815351</v>
       </c>
       <c r="C121">
-        <v>6280.057336251008</v>
+        <v>4477.330297350506</v>
       </c>
       <c r="D121">
-        <v>6271.817343163508</v>
+        <v>4528.257823538805</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2577,13 +2577,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>37895.13390865848</v>
+        <v>28039.47107412492</v>
       </c>
       <c r="C122">
-        <v>48807.62270454317</v>
+        <v>36515.63977551383</v>
       </c>
       <c r="D122">
-        <v>43361.70773092067</v>
+        <v>32580.21212364568</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2591,13 +2591,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>593.8031240933045</v>
+        <v>331.4235296425571</v>
       </c>
       <c r="C123">
-        <v>749.4934086849538</v>
+        <v>458.8924650940351</v>
       </c>
       <c r="D123">
-        <v>513.6999677333846</v>
+        <v>319.9843432470827</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2605,13 +2605,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>12088.77545938869</v>
+        <v>7307.606123554859</v>
       </c>
       <c r="C124">
-        <v>12887.41431557512</v>
+        <v>7789.732273858687</v>
       </c>
       <c r="D124">
-        <v>9844.918533115537</v>
+        <v>5801.825954543691</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2619,13 +2619,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>3036.827899467434</v>
+        <v>2302.765837505707</v>
       </c>
       <c r="C125">
-        <v>2823.1158277163</v>
+        <v>1837.860487008406</v>
       </c>
       <c r="D125">
-        <v>2743.209053534642</v>
+        <v>1874.410676745188</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2633,13 +2633,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>24999.63360402872</v>
+        <v>17428.92143109818</v>
       </c>
       <c r="C126">
-        <v>18890.97941499823</v>
+        <v>13862.90332176797</v>
       </c>
       <c r="D126">
-        <v>18328.97022068691</v>
+        <v>12810.32585935023</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2647,13 +2647,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>36348.4584182199</v>
+        <v>27612.50921500003</v>
       </c>
       <c r="C127">
-        <v>33134.35083331513</v>
+        <v>24930.95886299046</v>
       </c>
       <c r="D127">
-        <v>33704.09993631749</v>
+        <v>25807.50582878089</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2661,13 +2661,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>64761.2962753094</v>
+        <v>41959.50519626105</v>
       </c>
       <c r="C128">
-        <v>62432.7418200166</v>
+        <v>49795.534615157</v>
       </c>
       <c r="D128">
-        <v>59862.57235010719</v>
+        <v>45260.88589772889</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2675,13 +2675,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>33166.85198178647</v>
+        <v>25676.61984105965</v>
       </c>
       <c r="C129">
-        <v>78145.51416893872</v>
+        <v>55832.63346347596</v>
       </c>
       <c r="D129">
-        <v>52205.20223605071</v>
+        <v>37425.14375218002</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2689,13 +2689,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>40273.39428671064</v>
+        <v>22272.4688703907</v>
       </c>
       <c r="C130">
-        <v>27301.4628145256</v>
+        <v>18586.87269239863</v>
       </c>
       <c r="D130">
-        <v>31691.21054150791</v>
+        <v>21354.46929239204</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2703,13 +2703,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>7134.642940386741</v>
+        <v>6244.12159147012</v>
       </c>
       <c r="C131">
-        <v>17140.85651645633</v>
+        <v>6938.037590560696</v>
       </c>
       <c r="D131">
-        <v>12249.92906665781</v>
+        <v>5523.502439060611</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2717,13 +2717,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>136317.0372065873</v>
+        <v>80141.77579905932</v>
       </c>
       <c r="C132">
-        <v>67695.66250380264</v>
+        <v>64728.91733908589</v>
       </c>
       <c r="D132">
-        <v>83195.57023363536</v>
+        <v>78350.04047936696</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2731,13 +2731,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>12207.23402847386</v>
+        <v>10397.27014412335</v>
       </c>
       <c r="C133">
-        <v>23677.67260851281</v>
+        <v>17963.26154091718</v>
       </c>
       <c r="D133">
-        <v>16560.84592758246</v>
+        <v>12926.84348133983</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2745,13 +2745,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>31681.08124700094</v>
+        <v>25344.1281318152</v>
       </c>
       <c r="C134">
-        <v>29475.58335733766</v>
+        <v>22820.41953797168</v>
       </c>
       <c r="D134">
-        <v>30263.56100688774</v>
+        <v>23762.84001967132</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2759,13 +2759,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>12631.44019966505</v>
+        <v>10806.18512824952</v>
       </c>
       <c r="C135">
-        <v>16580.89724215902</v>
+        <v>12663.53774124804</v>
       </c>
       <c r="D135">
-        <v>13318.27119088189</v>
+        <v>10741.12845501702</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2773,13 +2773,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>113307.3524952339</v>
+        <v>102901.1808904807</v>
       </c>
       <c r="C136">
-        <v>234266.0936907044</v>
+        <v>174737.1663516982</v>
       </c>
       <c r="D136">
-        <v>171280.0208488862</v>
+        <v>132156.8808067979</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2787,13 +2787,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>116040.3025920771</v>
+        <v>99240.98046181464</v>
       </c>
       <c r="C137">
-        <v>72516.4632706141</v>
+        <v>60310.70363888549</v>
       </c>
       <c r="D137">
-        <v>96127.55099827109</v>
+        <v>81694.38951408224</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2801,13 +2801,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>43113.49480180955</v>
+        <v>37575.12418109563</v>
       </c>
       <c r="C138">
-        <v>39275.09267252457</v>
+        <v>31806.83699996347</v>
       </c>
       <c r="D138">
-        <v>49898.78329371975</v>
+        <v>41900.50952729119</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2815,13 +2815,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>96951.1063167082</v>
+        <v>81910.09944484642</v>
       </c>
       <c r="C139">
-        <v>70133.45105608137</v>
+        <v>56875.61851267148</v>
       </c>
       <c r="D139">
-        <v>101606.1722174497</v>
+        <v>82336.24627627179</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2829,13 +2829,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>1731.184500933223</v>
+        <v>1440.94778900967</v>
       </c>
       <c r="C140">
-        <v>2251.683684407817</v>
+        <v>1666.521447081287</v>
       </c>
       <c r="D140">
-        <v>1674.75843448519</v>
+        <v>1281.668696132277</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2843,13 +2843,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>1775.816907430866</v>
+        <v>1466.767358314856</v>
       </c>
       <c r="C141">
-        <v>2182.523008079333</v>
+        <v>1672.846884663262</v>
       </c>
       <c r="D141">
-        <v>1662.578407629534</v>
+        <v>1298.265982947749</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2857,13 +2857,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>681.2889999693223</v>
+        <v>529.5629642405731</v>
       </c>
       <c r="C142">
-        <v>743.1709869161263</v>
+        <v>572.8411613417441</v>
       </c>
       <c r="D142">
-        <v>581.4663556245179</v>
+        <v>447.7606118644891</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2871,13 +2871,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>1034.477737327072</v>
+        <v>826.3020906956681</v>
       </c>
       <c r="C143">
-        <v>1150.696710002115</v>
+        <v>949.1192467699013</v>
       </c>
       <c r="D143">
-        <v>901.9454523603238</v>
+        <v>729.2776467375378</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2885,13 +2885,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>418.6152007303783</v>
+        <v>322.7983421126549</v>
       </c>
       <c r="C144">
-        <v>534.315657424916</v>
+        <v>397.4365255172697</v>
       </c>
       <c r="D144">
-        <v>402.454820984238</v>
+        <v>302.29496776997</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>608.6742483270084</v>
+        <v>484.7006821321979</v>
       </c>
       <c r="C145">
-        <v>734.7364729391708</v>
+        <v>568.7599518665461</v>
       </c>
       <c r="D145">
-        <v>549.1831394332875</v>
+        <v>434.4681153307215</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>1107.227391339307</v>
+        <v>914.9966923212581</v>
       </c>
       <c r="C146">
-        <v>1319.615010361083</v>
+        <v>1053.447006096291</v>
       </c>
       <c r="D146">
-        <v>1005.476563113464</v>
+        <v>811.4298393713304</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>222.8629729594677</v>
+        <v>188.6204452120525</v>
       </c>
       <c r="C147">
-        <v>279.8876249775383</v>
+        <v>228.8411484840459</v>
       </c>
       <c r="D147">
-        <v>217.3334155703428</v>
+        <v>176.6255094841428</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>45.93789888547797</v>
+        <v>22.85029795220851</v>
       </c>
       <c r="C148">
-        <v>39.04252939290931</v>
+        <v>26.4709181912701</v>
       </c>
       <c r="D148">
-        <v>32.73744039103845</v>
+        <v>20.18064788976563</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>846.4478702235903</v>
+        <v>776.8106059656113</v>
       </c>
       <c r="C149">
-        <v>1125.423402717868</v>
+        <v>915.4460975179056</v>
       </c>
       <c r="D149">
-        <v>857.7811385468474</v>
+        <v>712.6396868487865</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>6184.046733985025</v>
+        <v>5201.233881572736</v>
       </c>
       <c r="C150">
-        <v>7248.087995032258</v>
+        <v>5884.646909194068</v>
       </c>
       <c r="D150">
-        <v>5685.801782539495</v>
+        <v>4569.999412371344</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>4.477100630522638</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>6.906102842677997</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>8.453681062232942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>236.6771364859725</v>
+        <v>171.6293609470723</v>
       </c>
       <c r="C152">
-        <v>250.9364727195109</v>
+        <v>150.6332489824409</v>
       </c>
       <c r="D152">
-        <v>194.0942399278041</v>
+        <v>122.9197751573759</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>655.5310218364064</v>
+        <v>505.8771107514309</v>
       </c>
       <c r="C153">
-        <v>677.7077433261967</v>
+        <v>555.7455005855516</v>
       </c>
       <c r="D153">
-        <v>538.223503607392</v>
+        <v>436.0233633734398</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>137.5942709550199</v>
+        <v>95.58372697726462</v>
       </c>
       <c r="C154">
-        <v>153.7113378516671</v>
+        <v>118.3738204507849</v>
       </c>
       <c r="D154">
-        <v>114.5246829649123</v>
+        <v>85.43211350944077</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>93.87400892484689</v>
+        <v>65.81890404400113</v>
       </c>
       <c r="C155">
-        <v>102.3460339056073</v>
+        <v>69.11010291252558</v>
       </c>
       <c r="D155">
-        <v>77.2690263206274</v>
+        <v>51.37155078639134</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>58.08928584951683</v>
+        <v>35.30114064331609</v>
       </c>
       <c r="C156">
-        <v>54.97640945271553</v>
+        <v>41.61121883769972</v>
       </c>
       <c r="D156">
-        <v>43.95005265070664</v>
+        <v>30.93470353563296</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>1243.4137541734</v>
+        <v>837.5060578491282</v>
       </c>
       <c r="C157">
-        <v>1370.642104214577</v>
+        <v>1037.650589872846</v>
       </c>
       <c r="D157">
-        <v>1077.697491117869</v>
+        <v>800.1865735230344</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>23.37374388298686</v>
+        <v>13.25499232875463</v>
       </c>
       <c r="C158">
-        <v>16.69734450362743</v>
+        <v>15.08454424745226</v>
       </c>
       <c r="D158">
-        <v>15.73937313345118</v>
+        <v>11.21737387081453</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>58.62018933757275</v>
+        <v>38.57632623104099</v>
       </c>
       <c r="C159">
-        <v>57.78182465155755</v>
+        <v>48.92730799079148</v>
       </c>
       <c r="D159">
-        <v>46.56720355144725</v>
+        <v>35.83285814249906</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>28203.20542498256</v>
+        <v>21817.57501396765</v>
       </c>
       <c r="C160">
-        <v>15449.32931868</v>
+        <v>12022.38116842882</v>
       </c>
       <c r="D160">
-        <v>23246.67756107811</v>
+        <v>18005.61445194655</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>46020.82076027952</v>
+        <v>38057.86355467052</v>
       </c>
       <c r="C161">
-        <v>26880.33650072035</v>
+        <v>20938.67941379064</v>
       </c>
       <c r="D161">
-        <v>34920.6067285144</v>
+        <v>27510.87921229583</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>23128.95865308552</v>
+        <v>23740.08456050292</v>
       </c>
       <c r="C162">
-        <v>36307.97405385431</v>
+        <v>27620.47524386555</v>
       </c>
       <c r="D162">
-        <v>33785.9828259334</v>
+        <v>29231.4226049109</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>1706.879406836012</v>
+        <v>1465.218841738983</v>
       </c>
       <c r="C163">
-        <v>3359.616218793654</v>
+        <v>2607.246366954029</v>
       </c>
       <c r="D163">
-        <v>3052.781437562611</v>
+        <v>2358.589674068962</v>
       </c>
     </row>
     <row r="164" spans="1:4">
